--- a/digit_small_digit_matrix/Results/Results_DNN_CNN.xlsx
+++ b/digit_small_digit_matrix/Results/Results_DNN_CNN.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Group_Learning\digit_small_digit_matrix\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E474029-431D-4849-8217-5254964FC6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72275169-0002-456A-A358-79D1B2BF611A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{23A3110C-C4C6-4892-B871-90B60E36F2CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{23A3110C-C4C6-4892-B871-90B60E36F2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1_original_digit_matrix" sheetId="1" r:id="rId1"/>
     <sheet name="dataset_2_fixed_random_pixels" sheetId="2" r:id="rId2"/>
     <sheet name="dataset_4_random_digits" sheetId="4" r:id="rId3"/>
-    <sheet name="dataset_3_random_pixels" sheetId="3" r:id="rId4"/>
+    <sheet name="dataset_4_50%_overlap" sheetId="6" r:id="rId4"/>
+    <sheet name="dataset_4_75%_overlap" sheetId="5" r:id="rId5"/>
+    <sheet name="dataset_3_random_pixels" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="21">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +109,18 @@
   </si>
   <si>
     <t>320 training samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,31 +485,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66ECCF2-A04A-426C-862B-AA4DFF670074}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -505,35 +525,47 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -543,35 +575,47 @@
       <c r="C4">
         <v>0.998</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.998</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.998</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.998</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.998</v>
+      </c>
+      <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.76200000000000001</v>
       </c>
-      <c r="P4">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -581,35 +625,47 @@
       <c r="C5">
         <v>0.998</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.998</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.998</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.998</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0.998</v>
+      </c>
+      <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -619,35 +675,47 @@
       <c r="C6">
         <v>0.998</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.85</v>
       </c>
-      <c r="G6">
-        <v>0.998</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6">
+        <v>0.998</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.998</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0.998</v>
+      </c>
+      <c r="Q6" t="s">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>0.96799999999999997</v>
       </c>
-      <c r="P6">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -657,35 +725,47 @@
       <c r="C7">
         <v>0.99199999999999999</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.998</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.998</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.998</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.998</v>
+      </c>
+      <c r="Q7" t="s">
         <v>6</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>0.94</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -695,35 +775,47 @@
       <c r="C8">
         <v>0.99399999999999999</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.98</v>
       </c>
-      <c r="G8">
-        <v>0.998</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8">
+        <v>0.998</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>7</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.998</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.998</v>
+      </c>
+      <c r="Q8" t="s">
         <v>7</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -732,52 +824,97 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="0">AVERAGE(C4:C8)</f>
+        <f t="shared" ref="C9:I9" si="0">AVERAGE(C4:C8)</f>
         <v>0.99599999999999989</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>0.96599999999999997</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>0.998</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="K9">
-        <f>AVERAGE(K4:K8)</f>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9" si="1">AVERAGE(L4:L8)</f>
-        <v>0.998</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <f>AVERAGE(N4:N8)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9" si="1">AVERAGE(O4:O8)</f>
+        <v>0.998</v>
+      </c>
+      <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="O9">
-        <f t="shared" ref="O9:P9" si="2">AVERAGE(O4:O8)</f>
+      <c r="R9">
+        <f t="shared" ref="R9:S9" si="2">AVERAGE(R4:R8)</f>
         <v>0.94600000000000006</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>0.98159999999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.STDEV.P(B4:B8)</f>
+        <v>8.0000000000000058E-4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="3">_xlfn.STDEV.P(C4:C8)</f>
+        <v>2.5298221281347057E-3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>5.8514955353311179E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -787,35 +924,47 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -825,35 +974,47 @@
       <c r="C13">
         <v>0.998</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.998</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.998</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.998</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.998</v>
+      </c>
+      <c r="Q13" t="s">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -863,35 +1024,47 @@
       <c r="C14">
         <v>0.998</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>4</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.998</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.998</v>
+      </c>
+      <c r="Q14" t="s">
         <v>4</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -901,35 +1074,47 @@
       <c r="C15">
         <v>0.998</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0.98399999999999999</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>5</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.998</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.998</v>
+      </c>
+      <c r="Q15" t="s">
         <v>5</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -939,35 +1124,47 @@
       <c r="C16">
         <v>0.998</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.998</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.998</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>6</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.998</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.998</v>
+      </c>
+      <c r="Q16" t="s">
         <v>6</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -977,35 +1174,47 @@
       <c r="C17">
         <v>0.998</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.998</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.998</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>7</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.998</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0.998</v>
+      </c>
+      <c r="Q17" t="s">
         <v>7</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1014,49 +1223,102 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:G18" si="3">AVERAGE(C13:C17)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E18" t="s">
+        <f t="shared" ref="C18:K18" si="4">AVERAGE(C13:C17)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
         <v>0.99440000000000006</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>8</v>
       </c>
-      <c r="K18">
-        <f>AVERAGE(K13:K17)</f>
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="4">AVERAGE(L13:L17)</f>
-        <v>0.998</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="N18">
+        <f>AVERAGE(N13:N17)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(O13:O17)</f>
+        <v>0.998</v>
+      </c>
+      <c r="Q18" t="s">
         <v>8</v>
       </c>
-      <c r="O18">
-        <f t="shared" ref="O18:P18" si="5">AVERAGE(O13:O17)</f>
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="5"/>
+      <c r="R18">
+        <f t="shared" ref="R18:S18" si="6">AVERAGE(R13:R17)</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
         <v>0.99519999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <f>_xlfn.STDEV.P(B13:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="7">_xlfn.STDEV.P(C13:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>5.4258639865002196E-3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1066,17 +1328,29 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1086,17 +1360,29 @@
       <c r="C22">
         <v>0.998</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0.998</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1106,17 +1392,29 @@
       <c r="C23">
         <v>0.998</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.998</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1126,17 +1424,29 @@
       <c r="C24">
         <v>0.998</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.998</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1146,17 +1456,29 @@
       <c r="C25">
         <v>0.998</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.998</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1166,17 +1488,29 @@
       <c r="C26">
         <v>0.998</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.998</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1185,27 +1519,80 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="6">AVERAGE(C22:C26)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E27" t="s">
+        <f t="shared" ref="C27:E27" si="8">AVERAGE(C22:C26)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>8</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:G27" si="7">AVERAGE(F22:F26)</f>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="7"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" ref="H27:K27" si="9">AVERAGE(H22:H26)</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0.998</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <f>_xlfn.STDEV.P(B22:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:K28" si="10">_xlfn.STDEV.P(C22:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1215,17 +1602,29 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1235,17 +1634,29 @@
       <c r="C31">
         <v>0.998</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>0.996</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1255,17 +1666,29 @@
       <c r="C32">
         <v>0.998</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.998</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1275,17 +1698,29 @@
       <c r="C33">
         <v>0.998</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.998</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1295,17 +1730,29 @@
       <c r="C34">
         <v>0.998</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>6</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.998</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1315,17 +1762,29 @@
       <c r="C35">
         <v>0.998</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.998</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1334,27 +1793,80 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36" si="8">AVERAGE(C31:C35)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E36" t="s">
+        <f t="shared" ref="C36:E36" si="11">AVERAGE(C31:C35)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36:G36" si="9">AVERAGE(F31:F35)</f>
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
+      <c r="H36">
+        <f t="shared" ref="H36:K36" si="12">AVERAGE(H31:H35)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="12"/>
         <v>0.99760000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <f>_xlfn.STDEV.P(B31:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="13">_xlfn.STDEV.P(C31:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>8.0000000000000058E-4</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1364,17 +1876,29 @@
       <c r="C39" t="s">
         <v>2</v>
       </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
       <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1384,17 +1908,29 @@
       <c r="C40">
         <v>0.998</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>3</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.998</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1404,17 +1940,29 @@
       <c r="C41">
         <v>0.998</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>4</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0.998</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1424,17 +1972,29 @@
       <c r="C42">
         <v>0.998</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>5</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.998</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1444,17 +2004,29 @@
       <c r="C43">
         <v>0.998</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>6</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.998</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1464,17 +2036,29 @@
       <c r="C44">
         <v>0.998</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.998</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1483,19 +2067,72 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45" si="10">AVERAGE(C40:C44)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E45" t="s">
+        <f t="shared" ref="C45:E45" si="14">AVERAGE(C40:C44)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
-        <f t="shared" ref="F45:G45" si="11">AVERAGE(F40:F44)</f>
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="11"/>
-        <v>0.998</v>
+      <c r="H45">
+        <f t="shared" ref="H45:K45" si="15">AVERAGE(H40:H44)</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="15"/>
+        <v>0.998</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <f>_xlfn.STDEV.P(B40:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:K46" si="16">_xlfn.STDEV.P(C40:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1507,31 +2144,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359F9CA5-1EC1-40CE-BE56-15BBF42DC14E}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="10" max="11" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1541,35 +2183,47 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1579,35 +2233,47 @@
       <c r="C4">
         <v>0.94</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.998</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.998</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.91200000000000003</v>
       </c>
-      <c r="L4">
-        <v>0.998</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4">
+        <v>0.998</v>
+      </c>
+      <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.94</v>
       </c>
-      <c r="P4">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1617,35 +2283,47 @@
       <c r="C5">
         <v>0.998</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.96399999999999997</v>
       </c>
-      <c r="G5">
-        <v>0.998</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5">
+        <v>0.998</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.998</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0.998</v>
+      </c>
+      <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>0.97599999999999998</v>
       </c>
-      <c r="P5">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1655,35 +2333,47 @@
       <c r="C6">
         <v>0.998</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>0.96399999999999997</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.998</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0.998</v>
+      </c>
+      <c r="Q6" t="s">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1693,35 +2383,47 @@
       <c r="C7">
         <v>0.998</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.998</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.998</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.998</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.998</v>
+      </c>
+      <c r="Q7" t="s">
         <v>6</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1731,35 +2433,47 @@
       <c r="C8">
         <v>0.998</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.92800000000000005</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>7</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.998</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.998</v>
+      </c>
+      <c r="Q8" t="s">
         <v>7</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1771,49 +2485,99 @@
         <f>AVERAGE(C4:C8)</f>
         <v>0.98640000000000005</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:G9" si="0">AVERAGE(F4:F8)</f>
+      <c r="H9">
+        <f t="shared" ref="H9:K9" si="1">AVERAGE(H4:H8)</f>
         <v>0.99280000000000013</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="I9">
+        <f t="shared" si="1"/>
         <v>0.97720000000000007</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>8</v>
       </c>
-      <c r="K9">
-        <f>AVERAGE(K4:K8)</f>
+      <c r="N9">
+        <f>AVERAGE(N4:N8)</f>
         <v>0.98239999999999994</v>
       </c>
-      <c r="L9">
-        <f>AVERAGE(L4:L8)</f>
-        <v>0.998</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9">
+        <f>AVERAGE(O4:O8)</f>
+        <v>0.998</v>
+      </c>
+      <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="O9">
-        <f t="shared" ref="O9:P9" si="1">AVERAGE(O4:O8)</f>
+      <c r="R9">
+        <f t="shared" ref="R9:S9" si="2">AVERAGE(R4:R8)</f>
         <v>0.98320000000000007</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
+      <c r="S9">
+        <f t="shared" si="2"/>
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>_xlfn.STDEV.P(B4:B8)</f>
+        <v>3.7553162316907467E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="3">_xlfn.STDEV.P(C4:C8)</f>
+        <v>2.3200000000000026E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1.4400000000000012E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2.7902688042552443E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1823,35 +2587,47 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1861,35 +2637,47 @@
       <c r="C13">
         <v>0.998</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>0.998</v>
-      </c>
-      <c r="G13">
-        <v>0.998</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13">
+        <v>0.998</v>
+      </c>
+      <c r="I13">
+        <v>0.998</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.998</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.998</v>
+      </c>
+      <c r="Q13" t="s">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1899,35 +2687,47 @@
       <c r="C14">
         <v>0.998</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G14">
-        <v>0.998</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14">
+        <v>0.998</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>4</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.998</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.998</v>
+      </c>
+      <c r="Q14" t="s">
         <v>4</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1937,35 +2737,47 @@
       <c r="C15">
         <v>0.998</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0.98</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>5</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.998</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.998</v>
+      </c>
+      <c r="Q15" t="s">
         <v>5</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1975,35 +2787,47 @@
       <c r="C16">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.998</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.998</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>0.996</v>
       </c>
-      <c r="L16">
-        <v>0.998</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16">
+        <v>0.998</v>
+      </c>
+      <c r="Q16" t="s">
         <v>6</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2013,35 +2837,47 @@
       <c r="C17">
         <v>0.998</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>0.97199999999999998</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>7</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L17">
-        <v>0.998</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17">
+        <v>0.998</v>
+      </c>
+      <c r="Q17" t="s">
         <v>7</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2050,49 +2886,99 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:G18" si="2">AVERAGE(C13:C17)</f>
+        <f t="shared" ref="C18:K18" si="4">AVERAGE(C13:C17)</f>
         <v>0.99480000000000002</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
+      <c r="H18">
+        <f t="shared" si="4"/>
         <v>0.99839999999999995</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="I18">
+        <f t="shared" si="4"/>
         <v>0.98919999999999997</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>8</v>
       </c>
-      <c r="K18">
-        <f>AVERAGE(K13:K17)</f>
-        <v>0.998</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="3">AVERAGE(L13:L17)</f>
-        <v>0.998</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="N18">
+        <f>AVERAGE(N13:N17)</f>
+        <v>0.998</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(O13:O17)</f>
+        <v>0.998</v>
+      </c>
+      <c r="Q18" t="s">
         <v>8</v>
       </c>
-      <c r="O18">
-        <f t="shared" ref="O18:P18" si="4">AVERAGE(O13:O17)</f>
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="4"/>
+      <c r="R18">
+        <f t="shared" ref="R18:S18" si="6">AVERAGE(R13:R17)</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
         <v>0.99360000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>_xlfn.STDEV.P(B13:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="7">_xlfn.STDEV.P(C13:C17)</f>
+        <v>6.4000000000000055E-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>2.3323807579381222E-3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>1.1070682002478448E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2102,17 +2988,29 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2122,17 +3020,29 @@
       <c r="C22">
         <v>0.998</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G22">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>0.998</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2142,17 +3052,29 @@
       <c r="C23">
         <v>0.998</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.998</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2162,17 +3084,29 @@
       <c r="C24">
         <v>0.998</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>0.998</v>
-      </c>
-      <c r="G24">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>0.998</v>
+      </c>
+      <c r="I24">
+        <v>0.998</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2182,17 +3116,29 @@
       <c r="C25">
         <v>0.998</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.998</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2202,17 +3148,29 @@
       <c r="C26">
         <v>0.998</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.998</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2221,27 +3179,77 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="5">AVERAGE(C22:C26)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E27" t="s">
+        <f t="shared" ref="C27:E27" si="8">AVERAGE(C22:C26)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>8</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:G27" si="6">AVERAGE(F22:F26)</f>
+      <c r="H27">
+        <f t="shared" ref="H27:K27" si="9">AVERAGE(H22:H26)</f>
         <v>0.99839999999999995</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0.998</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>_xlfn.STDEV.P(B22:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:K28" si="10">_xlfn.STDEV.P(C22:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>2.3323807579381222E-3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2251,17 +3259,29 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2271,17 +3291,29 @@
       <c r="C31">
         <v>0.998</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.998</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2291,17 +3323,29 @@
       <c r="C32">
         <v>0.998</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.998</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2311,17 +3355,29 @@
       <c r="C33">
         <v>0.998</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.998</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2331,17 +3387,29 @@
       <c r="C34">
         <v>0.998</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>6</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.998</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2351,17 +3419,29 @@
       <c r="C35">
         <v>0.998</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.998</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2370,27 +3450,77 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36" si="7">AVERAGE(C31:C35)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E36" t="s">
+        <f t="shared" ref="C36:E36" si="11">AVERAGE(C31:C35)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36:G36" si="8">AVERAGE(F31:F35)</f>
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="8"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" ref="H36:K36" si="12">AVERAGE(H31:H35)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="12"/>
+        <v>0.998</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>_xlfn.STDEV.P(B31:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="13">_xlfn.STDEV.P(C31:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2400,17 +3530,29 @@
       <c r="C39" t="s">
         <v>2</v>
       </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
       <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2420,17 +3562,29 @@
       <c r="C40">
         <v>0.998</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>3</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.998</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2440,17 +3594,29 @@
       <c r="C41">
         <v>0.998</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>4</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0.998</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2460,17 +3626,29 @@
       <c r="C42">
         <v>0.998</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>5</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.998</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2480,17 +3658,29 @@
       <c r="C43">
         <v>0.998</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>6</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.998</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2500,17 +3690,29 @@
       <c r="C44">
         <v>0.998</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.998</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2519,19 +3721,69 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45" si="9">AVERAGE(C40:C44)</f>
-        <v>0.998</v>
-      </c>
-      <c r="E45" t="s">
+        <f t="shared" ref="C45:E45" si="14">AVERAGE(C40:C44)</f>
+        <v>0.998</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
-        <f t="shared" ref="F45:G45" si="10">AVERAGE(F40:F44)</f>
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="10"/>
-        <v>0.998</v>
+      <c r="H45">
+        <f t="shared" ref="H45:K45" si="15">AVERAGE(H40:H44)</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="15"/>
+        <v>0.998</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>_xlfn.STDEV.P(B40:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:K46" si="16">_xlfn.STDEV.P(C40:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2543,31 +3795,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C8CD8B-23E2-4C60-837F-03BE48F01406}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2577,26 +3835,29 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
         <v>1</v>
@@ -2604,8 +3865,17 @@
       <c r="P3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2615,35 +3885,47 @@
       <c r="C4">
         <v>0.6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.35</v>
       </c>
-      <c r="J4" t="s">
-        <v>3</v>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.09</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.09</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4">
         <v>0.93600000000000005</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2653,35 +3935,47 @@
       <c r="C5">
         <v>0.65600000000000003</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="L5">
-        <v>0.86799999999999999</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
       </c>
       <c r="O5">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5">
         <v>0.28399999999999997</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2691,35 +3985,47 @@
       <c r="C6">
         <v>0.188</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.74</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="J6" t="s">
-        <v>5</v>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.996</v>
-      </c>
-      <c r="L6">
-        <v>0.246</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>5</v>
       </c>
       <c r="O6">
+        <v>0.996</v>
+      </c>
+      <c r="P6">
+        <v>0.246</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6">
         <v>0.67800000000000005</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2729,35 +4035,47 @@
       <c r="C7">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.996</v>
       </c>
-      <c r="J7" t="s">
-        <v>6</v>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L7">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>6</v>
       </c>
       <c r="O7">
-        <v>0.19</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="P7">
         <v>0.996</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>0.19</v>
+      </c>
+      <c r="T7">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2767,35 +4085,47 @@
       <c r="C8">
         <v>0.70799999999999996</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.65800000000000003</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.88600000000000001</v>
       </c>
-      <c r="J8" t="s">
-        <v>7</v>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8">
         <v>0.97599999999999998</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2807,49 +4137,99 @@
         <f>AVERAGE(C4:C8)</f>
         <v>0.61919999999999997</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <f>AVERAGE(F4:F8)</f>
+      <c r="H9">
+        <f>AVERAGE(H4:H8)</f>
         <v>0.71880000000000011</v>
       </c>
-      <c r="G9">
-        <f>AVERAGE(G4:G8)</f>
+      <c r="I9">
+        <f>AVERAGE(I4:I8)</f>
         <v>0.60719999999999996</v>
       </c>
-      <c r="J9" t="s">
-        <v>8</v>
+      <c r="J9">
+        <f t="shared" ref="J9:K9" si="1">AVERAGE(J4:J8)</f>
+        <v>1</v>
       </c>
       <c r="K9">
-        <f>AVERAGE(K4:K8)</f>
-        <v>0.76239999999999997</v>
-      </c>
-      <c r="L9">
-        <f>AVERAGE(L4:L8)</f>
-        <v>0.44000000000000006</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
       </c>
       <c r="O9">
         <f>AVERAGE(O4:O8)</f>
-        <v>0.61280000000000001</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="P9">
         <f>AVERAGE(P4:P8)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f>AVERAGE(S4:S8)</f>
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="T9">
+        <f>AVERAGE(T4:T8)</f>
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>_xlfn.STDEV.P(B4:B8)</f>
+        <v>0.13966474143462232</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="2">_xlfn.STDEV.P(C4:C8)</f>
+        <v>0.24537188102959148</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.29081843132786472</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.37482497248715957</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2859,26 +4239,29 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>1</v>
@@ -2886,8 +4269,17 @@
       <c r="P12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2897,35 +4289,47 @@
       <c r="C13">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0.372</v>
       </c>
-      <c r="J13" t="s">
-        <v>3</v>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="L13">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>3</v>
       </c>
       <c r="O13">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="P13">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13">
         <v>0.95599999999999996</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2935,35 +4339,47 @@
       <c r="C14">
         <v>0.99399999999999999</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.95</v>
+      </c>
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.80600000000000005</v>
       </c>
-      <c r="J14" t="s">
-        <v>4</v>
+      <c r="J14">
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.15</v>
-      </c>
-      <c r="L14">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
         <v>4</v>
       </c>
       <c r="O14">
+        <v>0.15</v>
+      </c>
+      <c r="P14">
+        <v>0.998</v>
+      </c>
+      <c r="R14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14">
         <v>0.95399999999999996</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2973,35 +4389,47 @@
       <c r="C15">
         <v>0.6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0.32800000000000001</v>
       </c>
-      <c r="J15" t="s">
-        <v>5</v>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.996</v>
-      </c>
-      <c r="L15">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>5</v>
       </c>
       <c r="O15">
+        <v>0.996</v>
+      </c>
+      <c r="P15">
+        <v>0.37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15">
         <v>0.81799999999999995</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3011,35 +4439,47 @@
       <c r="C16">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.98</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.67800000000000005</v>
       </c>
-      <c r="J16" t="s">
-        <v>6</v>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.108</v>
       </c>
       <c r="N16" t="s">
         <v>6</v>
       </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0.108</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16">
         <v>0.78</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3049,35 +4489,47 @@
       <c r="C17">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.996</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J17" t="s">
-        <v>7</v>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="L17">
-        <v>0.84599999999999997</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
         <v>7</v>
       </c>
       <c r="O17">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="P17">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17">
         <v>0.98399999999999999</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3089,46 +4541,96 @@
         <f>AVERAGE(C13:C17)</f>
         <v>0.80159999999999998</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18">
+        <f t="shared" ref="D18:E18" si="3">AVERAGE(D13:D17)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.99</v>
+      </c>
+      <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <f>AVERAGE(F13:F17)</f>
+      <c r="H18">
+        <f>AVERAGE(H13:H17)</f>
         <v>0.98960000000000004</v>
       </c>
-      <c r="G18">
-        <f>AVERAGE(G13:G17)</f>
+      <c r="I18">
+        <f>AVERAGE(I13:I17)</f>
         <v>0.55079999999999996</v>
       </c>
-      <c r="J18" t="s">
-        <v>8</v>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="4">AVERAGE(J13:J17)</f>
+        <v>1</v>
       </c>
       <c r="K18">
-        <f>AVERAGE(K13:K17)</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="L18">
-        <f>AVERAGE(L13:L17)</f>
-        <v>0.66</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>8</v>
       </c>
       <c r="O18">
         <f>AVERAGE(O13:O17)</f>
-        <v>0.89839999999999998</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="P18">
         <f>AVERAGE(P13:P17)</f>
+        <v>0.66</v>
+      </c>
+      <c r="R18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGE(S13:S17)</f>
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(T13:T17)</f>
         <v>0.84160000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>_xlfn.STDEV.P(B13:B17)</f>
+        <v>0.24676012643861228</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="5">_xlfn.STDEV.P(C13:C17)</f>
+        <v>0.18176204224204814</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>1.1482160075525868E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0.18071236814341204</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3138,17 +4640,29 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3158,17 +4672,29 @@
       <c r="C22">
         <v>0.97</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.93600000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3178,17 +4704,29 @@
       <c r="C23">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3198,17 +4736,29 @@
       <c r="C24">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3218,17 +4768,29 @@
       <c r="C25">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0.90400000000000003</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.96599999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3238,17 +4800,29 @@
       <c r="C26">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -3260,24 +4834,74 @@
         <f>AVERAGE(C22:C26)</f>
         <v>0.94279999999999986</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="6">AVERAGE(D22:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>8</v>
       </c>
-      <c r="F27">
-        <f>AVERAGE(F22:F26)</f>
+      <c r="H27">
+        <f>AVERAGE(H22:H26)</f>
         <v>0.96759999999999979</v>
       </c>
-      <c r="G27">
-        <f>AVERAGE(G22:G26)</f>
+      <c r="I27">
+        <f>AVERAGE(I22:I26)</f>
         <v>0.94679999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" ref="J27:K27" si="7">AVERAGE(J22:J26)</f>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>_xlfn.STDEV.P(B22:B26)</f>
+        <v>1.7453939383417119E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:K28" si="8">_xlfn.STDEV.P(C22:C26)</f>
+        <v>1.7371240600486754E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>3.2357997465850684E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>2.0497804760510302E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3287,17 +4911,29 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3307,17 +4943,29 @@
       <c r="C31">
         <v>0.996</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.97399999999999998</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.95199999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3327,17 +4975,29 @@
       <c r="C32">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>4</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.99</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.98799999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3347,17 +5007,29 @@
       <c r="C33">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>0.97399999999999998</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.98599999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3367,17 +5039,29 @@
       <c r="C34">
         <v>0.98</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>6</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.96199999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3387,17 +5071,29 @@
       <c r="C35">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.98599999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3409,24 +5105,74 @@
         <f>AVERAGE(C31:C35)</f>
         <v>0.97679999999999989</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36">
+        <f t="shared" ref="D36:E36" si="9">AVERAGE(D31:D35)</f>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
-        <f>AVERAGE(F31:F35)</f>
+      <c r="H36">
+        <f>AVERAGE(H31:H35)</f>
         <v>0.9847999999999999</v>
       </c>
-      <c r="G36">
-        <f>AVERAGE(G31:G35)</f>
+      <c r="I36">
+        <f>AVERAGE(I31:I35)</f>
         <v>0.97479999999999989</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" ref="J36:K36" si="10">AVERAGE(J31:J35)</f>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>_xlfn.STDEV.P(B31:B35)</f>
+        <v>2.4179330015531842E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="11">_xlfn.STDEV.P(C31:C35)</f>
+        <v>2.0183161298468602E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>8.9084229805280434E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>1.4891608375189042E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3436,17 +5182,29 @@
       <c r="C39" t="s">
         <v>2</v>
       </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
       <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3456,17 +5214,29 @@
       <c r="C40">
         <v>0.99399999999999999</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>3</v>
       </c>
-      <c r="F40">
-        <v>0.998</v>
-      </c>
-      <c r="G40">
+      <c r="H40">
+        <v>0.998</v>
+      </c>
+      <c r="I40">
         <v>0.996</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3476,17 +5246,29 @@
       <c r="C41">
         <v>0.93400000000000005</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>4</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3496,17 +5278,29 @@
       <c r="C42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>5</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>0.98599999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3516,17 +5310,29 @@
       <c r="C43">
         <v>0.95199999999999996</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>6</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.996</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3536,17 +5342,29 @@
       <c r="C44">
         <v>0.98399999999999999</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>0.98399999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3558,16 +5376,66 @@
         <f>AVERAGE(C40:C44)</f>
         <v>0.96799999999999997</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45">
+        <f t="shared" ref="D45:E45" si="12">AVERAGE(D40:D44)</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
-        <f>AVERAGE(F40:F44)</f>
+      <c r="H45">
+        <f>AVERAGE(H40:H44)</f>
         <v>0.99480000000000002</v>
       </c>
-      <c r="G45">
-        <f>AVERAGE(G40:G44)</f>
+      <c r="I45">
+        <f>AVERAGE(I40:I44)</f>
         <v>0.99</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:K45" si="13">AVERAGE(J40:J44)</f>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>_xlfn.STDEV.P(B40:B44)</f>
+        <v>9.7979589711327201E-4</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:K46" si="14">_xlfn.STDEV.P(C40:C44)</f>
+        <v>2.1945386758952311E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>2.039607805437116E-3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>4.3817804600413323E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3577,6 +5445,2772 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C8EC04-814E-4AE1-99DE-E9AAE61049FE}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.998</v>
+      </c>
+      <c r="C4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.998</v>
+      </c>
+      <c r="I5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.83</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.43</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.62</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.998</v>
+      </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B4:B8)</f>
+        <v>0.90679999999999994</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(H4:H8)</f>
+        <v>0.80199999999999994</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(I4:I8)</f>
+        <v>0.43600000000000005</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:K9" si="1">AVERAGE(J4:J8)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>_xlfn.STDEV.P(B4:B8)</f>
+        <v>0.16415894736504627</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="2">_xlfn.STDEV.P(C4:C8)</f>
+        <v>0.32699015275692939</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.30609802351534393</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.36846058133808562</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0.42</v>
+      </c>
+      <c r="C13">
+        <v>0.97</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I13">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.214</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C15">
+        <v>0.53</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I16">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>0.82</v>
+      </c>
+      <c r="I17">
+        <v>0.87</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B13:B17)</f>
+        <v>0.83439999999999992</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C13:C17)</f>
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:E18" si="3">AVERAGE(D13:D17)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H13:H17)</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(I13:I17)</f>
+        <v>0.70400000000000007</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="4">AVERAGE(J13:J17)</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>_xlfn.STDEV.P(B13:B17)</f>
+        <v>0.21137417060748029</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="5">_xlfn.STDEV.P(C13:C17)</f>
+        <v>0.24707763961961407</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>6.8410525505948297E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0.1240580509277811</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I22">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.876</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C24">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>0.89</v>
+      </c>
+      <c r="I24">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I25">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C26">
+        <v>0.88</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>0.872</v>
+      </c>
+      <c r="I26">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B22:B26)</f>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C22:C26)</f>
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="6">AVERAGE(D22:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(H22:H26)</f>
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:I26)</f>
+        <v>0.90279999999999982</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:K27" si="7">AVERAGE(J22:J26)</f>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>_xlfn.STDEV.P(B22:B26)</f>
+        <v>8.7936340610694039E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:K28" si="8">_xlfn.STDEV.P(C22:C26)</f>
+        <v>0.31534108517603593</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>3.8727767815870805E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>4.2135021063243808E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.97</v>
+      </c>
+      <c r="C31">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0.99</v>
+      </c>
+      <c r="I31">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C32">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.874</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C33">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>0.96</v>
+      </c>
+      <c r="I33">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.998</v>
+      </c>
+      <c r="D34">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I34">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0.998</v>
+      </c>
+      <c r="C35">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I35">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(B31:B35)</f>
+        <v>0.89479999999999982</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C31:C35)</f>
+        <v>0.8607999999999999</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:E36" si="9">AVERAGE(D31:D35)</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="9"/>
+        <v>0.98990000000000011</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(H31:H35)</f>
+        <v>0.9608000000000001</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(I31:I35)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:K36" si="10">AVERAGE(J31:J35)</f>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>_xlfn.STDEV.P(B31:B35)</f>
+        <v>0.133180178705392</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="11">_xlfn.STDEV.P(C31:C35)</f>
+        <v>0.14623050297390158</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>2.9999999999999982E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>1.4595889832415143E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>2.863843571146998E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>3.765102920240028E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0.996</v>
+      </c>
+      <c r="C40">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.99</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.998</v>
+      </c>
+      <c r="C41">
+        <v>0.89</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I41">
+        <v>0.996</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I42">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>0.996</v>
+      </c>
+      <c r="I43">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(B40:B44)</f>
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C40:C44)</f>
+        <v>0.9304</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:E45" si="12">AVERAGE(D40:D44)</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(H40:H44)</f>
+        <v>0.99319999999999986</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(I40:I44)</f>
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:K45" si="13">AVERAGE(J40:J44)</f>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>_xlfn.STDEV.P(B40:B44)</f>
+        <v>4.308131845707607E-3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:K46" si="14">_xlfn.STDEV.P(C40:C44)</f>
+        <v>5.4734267145911432E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>4.6647615158762453E-3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>6.4992307237087734E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D1CB42-4AEC-419D-9664-342E93898351}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.108</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.998</v>
+      </c>
+      <c r="I6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0.18</v>
+      </c>
+      <c r="I7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.87</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B4:B8)</f>
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.3876</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE(H4:H8)</f>
+        <v>0.52040000000000008</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(I4:I8)</f>
+        <v>0.64640000000000009</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:K9" si="1">AVERAGE(J4:J8)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>_xlfn.STDEV.P(B4:B8)</f>
+        <v>0.3960363619669286</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="2">_xlfn.STDEV.P(C4:C8)</f>
+        <v>0.42456641412151291</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.8989794855663543E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.35451691073910702</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.37716712476036385</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0.44</v>
+      </c>
+      <c r="C13">
+        <v>0.89</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I15">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0.126</v>
+      </c>
+      <c r="C16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.88</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.89</v>
+      </c>
+      <c r="C17">
+        <v>0.54</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B13:B17)</f>
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C13:C17)</f>
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:E18" si="3">AVERAGE(D13:D17)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H13:H17)</f>
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(I13:I17)</f>
+        <v>0.72079999999999989</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="4">AVERAGE(J13:J17)</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>_xlfn.STDEV.P(B13:B17)</f>
+        <v>0.33224424750475368</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:K19" si="5">_xlfn.STDEV.P(C13:C17)</f>
+        <v>0.33617709618592401</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>0.21813537081363038</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0.18898719533344066</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.996</v>
+      </c>
+      <c r="C22">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0.874</v>
+      </c>
+      <c r="I22">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.94</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>0.86</v>
+      </c>
+      <c r="I23">
+        <v>0.89</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.86</v>
+      </c>
+      <c r="C24">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I24">
+        <v>0.878</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C25">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I25">
+        <v>0.8</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.51</v>
+      </c>
+      <c r="C26">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I26">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B22:B26)</f>
+        <v>0.7831999999999999</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C22:C26)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:E27" si="6">AVERAGE(D22:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(H22:H26)</f>
+        <v>0.8528</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:I26)</f>
+        <v>0.83440000000000014</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:K27" si="7">AVERAGE(J22:J26)</f>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>_xlfn.STDEV.P(B22:B26)</f>
+        <v>0.18857189610331676</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:K28" si="8">_xlfn.STDEV.P(C22:C26)</f>
+        <v>0.25985349718639539</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>3.9999999999999987E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>2.9464554977124659E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>4.6620167309867087E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="C31">
+        <v>0.89</v>
+      </c>
+      <c r="D31">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I31">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C32">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I32">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C33">
+        <v>0.622</v>
+      </c>
+      <c r="D33">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E33">
+        <v>0.8125</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I33">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.878</v>
+      </c>
+      <c r="C34">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I34">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C35">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0.86</v>
+      </c>
+      <c r="I35">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(B31:B35)</f>
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE(C31:C35)</f>
+        <v>0.82719999999999982</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:E36" si="9">AVERAGE(D31:D35)</f>
+        <v>0.99</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="9"/>
+        <v>0.96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(H31:H35)</f>
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(I31:I35)</f>
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:K36" si="10">AVERAGE(J31:J35)</f>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>_xlfn.STDEV.P(B31:B35)</f>
+        <v>6.7558567184332716E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:K37" si="11">_xlfn.STDEV.P(C31:C35)</f>
+        <v>0.12779733956542361</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>9.3541434669348559E-3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>7.390872749547242E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>3.0183439167861578E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>1.3302631318652725E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C40">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I40">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.93</v>
+      </c>
+      <c r="C41">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I41">
+        <v>0.97</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C42">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I42">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="C43">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I43">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C44">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I44">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(B40:B44)</f>
+        <v>0.89920000000000011</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C40:C44)</f>
+        <v>0.96040000000000014</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:E45" si="12">AVERAGE(D40:D44)</f>
+        <v>0.99879999999999991</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(H40:H44)</f>
+        <v>0.97199999999999986</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(I40:I44)</f>
+        <v>0.96039999999999992</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:K45" si="13">AVERAGE(J40:J44)</f>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>_xlfn.STDEV.P(B40:B44)</f>
+        <v>8.4716940454669404E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:K46" si="14">_xlfn.STDEV.P(C40:C44)</f>
+        <v>2.8827764394763575E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="14"/>
+        <v>2.4000000000000024E-3</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>1.0881176406988364E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>9.1564185138076851E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1023F123-09DF-472F-BDFF-9ADF807C5093}">
   <dimension ref="A1:P18"/>
   <sheetViews>
